--- a/final.xlsx
+++ b/final.xlsx
@@ -10,6 +10,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$AA$35</definedName>
     <definedName name="新增_文字文件__3" localSheetId="0">工作表1!$A$1:$AA$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -579,7 +580,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
